--- a/Docs/TidsPlan.xlsx
+++ b/Docs/TidsPlan.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{BA3B8245-F969-4EDF-A215-EEF1F6F60478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD34A0F9-6E74-488A-B07F-F4D7B3AC3115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplanlægger" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Projektplanlægger</t>
   </si>
@@ -51,33 +51,6 @@
   </si>
   <si>
     <t>AKTIVITET</t>
-  </si>
-  <si>
-    <t>Aktivitet 18</t>
-  </si>
-  <si>
-    <t>Aktivitet 19</t>
-  </si>
-  <si>
-    <t>Aktivitet 20</t>
-  </si>
-  <si>
-    <t>Aktivitet 21</t>
-  </si>
-  <si>
-    <t>Aktivitet 22</t>
-  </si>
-  <si>
-    <t>Aktivitet 23</t>
-  </si>
-  <si>
-    <t>Aktivitet 24</t>
-  </si>
-  <si>
-    <t>Aktivitet 25</t>
-  </si>
-  <si>
-    <t>Aktivitet 26</t>
   </si>
   <si>
     <t>STARTDATO FOR PLAN</t>
@@ -203,9 +176,6 @@
     <t>Metoder og teknologi</t>
   </si>
   <si>
-    <t xml:space="preserve">Produktrapport referancer </t>
-  </si>
-  <si>
     <t>Realiseret tidsplan</t>
   </si>
   <si>
@@ -221,9 +191,6 @@
     <t>Kravspecification</t>
   </si>
   <si>
-    <t>Testspecification</t>
-  </si>
-  <si>
     <t>Produkt</t>
   </si>
   <si>
@@ -237,6 +204,9 @@
   </si>
   <si>
     <t>Backend</t>
+  </si>
+  <si>
+    <t>Selv valgt emne</t>
   </si>
 </sst>
 </file>
@@ -662,6 +632,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -671,9 +689,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -688,51 +703,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -757,35 +727,6 @@
     <cellStyle name="Værdi for tidsrum" xfId="13" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="7"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -897,6 +838,35 @@
         <bottom style="thin">
           <color theme="0"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
   </dxfs>
@@ -1143,10 +1113,10 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BO30"/>
+  <dimension ref="B1:BO20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="BG13" sqref="BG13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1177,76 +1147,76 @@
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
       <c r="G2" s="5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H2" s="14">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="J2" s="15"/>
-      <c r="K2" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="29"/>
+      <c r="K2" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="44"/>
       <c r="P2" s="16"/>
-      <c r="Q2" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="29"/>
+      <c r="Q2" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="44"/>
       <c r="V2" s="17"/>
-      <c r="W2" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="31"/>
+      <c r="W2" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="46"/>
       <c r="Z2" s="18"/>
-      <c r="AA2" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
+      <c r="AA2" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
       <c r="AG2" s="19"/>
-      <c r="AH2" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="24"/>
-      <c r="AN2" s="24"/>
+      <c r="AH2" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI2" s="40"/>
+      <c r="AJ2" s="40"/>
+      <c r="AK2" s="40"/>
+      <c r="AL2" s="40"/>
+      <c r="AM2" s="40"/>
+      <c r="AN2" s="40"/>
       <c r="AO2" s="22"/>
       <c r="AP2" s="22"/>
     </row>
     <row r="3" spans="2:67" s="11" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>17</v>
+      <c r="C3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>8</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="10"/>
@@ -1269,12 +1239,12 @@
       <c r="AA3" s="10"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="33"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1457,573 +1427,373 @@
       </c>
     </row>
     <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="24">
+        <v>1</v>
+      </c>
+      <c r="D5" s="24">
         <v>24</v>
       </c>
-      <c r="C5" s="36">
-        <v>1</v>
-      </c>
-      <c r="D5" s="36">
+      <c r="E5" s="24">
+        <v>1</v>
+      </c>
+      <c r="F5" s="24">
+        <v>24</v>
+      </c>
+      <c r="G5" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="27">
+        <v>1</v>
+      </c>
+      <c r="D6" s="27">
+        <v>1</v>
+      </c>
+      <c r="E6" s="27">
+        <v>1</v>
+      </c>
+      <c r="F6" s="27">
+        <v>1</v>
+      </c>
+      <c r="G6" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="27">
+        <v>1</v>
+      </c>
+      <c r="D7" s="27">
+        <v>1</v>
+      </c>
+      <c r="E7" s="27">
+        <v>1</v>
+      </c>
+      <c r="F7" s="27">
+        <v>1</v>
+      </c>
+      <c r="G7" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="30">
+        <v>1</v>
+      </c>
+      <c r="D8" s="30">
+        <v>3</v>
+      </c>
+      <c r="E8" s="30">
+        <v>1</v>
+      </c>
+      <c r="F8" s="30">
+        <v>3</v>
+      </c>
+      <c r="G8" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="30">
+        <v>1</v>
+      </c>
+      <c r="D9" s="30">
+        <v>3</v>
+      </c>
+      <c r="E9" s="30">
+        <v>1</v>
+      </c>
+      <c r="F9" s="30">
+        <v>3</v>
+      </c>
+      <c r="G9" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="30">
+        <v>1</v>
+      </c>
+      <c r="D10" s="30">
+        <v>31</v>
+      </c>
+      <c r="E10" s="30">
+        <v>1</v>
+      </c>
+      <c r="F10" s="30">
+        <v>31</v>
+      </c>
+      <c r="G10" s="31">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="30">
+        <v>19</v>
+      </c>
+      <c r="D11" s="30">
+        <v>4</v>
+      </c>
+      <c r="E11" s="30">
+        <v>19</v>
+      </c>
+      <c r="F11" s="30">
+        <v>4</v>
+      </c>
+      <c r="G11" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="30">
+        <v>1</v>
+      </c>
+      <c r="D12" s="30">
+        <v>31</v>
+      </c>
+      <c r="E12" s="30">
+        <v>1</v>
+      </c>
+      <c r="F12" s="30">
+        <v>31</v>
+      </c>
+      <c r="G12" s="31">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="36">
-        <v>1</v>
-      </c>
-      <c r="F5" s="36">
-        <v>23</v>
-      </c>
-      <c r="G5" s="37">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="38" t="s">
+      <c r="C13" s="30">
+        <v>5</v>
+      </c>
+      <c r="D13" s="30">
+        <v>20</v>
+      </c>
+      <c r="E13" s="30">
+        <v>5</v>
+      </c>
+      <c r="F13" s="30">
+        <v>20</v>
+      </c>
+      <c r="G13" s="31">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="30">
+        <v>1</v>
+      </c>
+      <c r="D14" s="30">
+        <v>5</v>
+      </c>
+      <c r="E14" s="30">
+        <v>1</v>
+      </c>
+      <c r="F14" s="30">
+        <v>5</v>
+      </c>
+      <c r="G14" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="39">
-        <v>1</v>
-      </c>
-      <c r="D6" s="39">
-        <v>1</v>
-      </c>
-      <c r="E6" s="39">
-        <v>1</v>
-      </c>
-      <c r="F6" s="39">
-        <v>1</v>
-      </c>
-      <c r="G6" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="38" t="s">
+      <c r="C15" s="30">
+        <v>2</v>
+      </c>
+      <c r="D15" s="30">
+        <v>30</v>
+      </c>
+      <c r="E15" s="30">
+        <v>2</v>
+      </c>
+      <c r="F15" s="30">
+        <v>30</v>
+      </c>
+      <c r="G15" s="31">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="39">
-        <v>1</v>
-      </c>
-      <c r="D7" s="39">
-        <v>1</v>
-      </c>
-      <c r="E7" s="39">
-        <v>1</v>
-      </c>
-      <c r="F7" s="39">
-        <v>1</v>
-      </c>
-      <c r="G7" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="41" t="s">
+      <c r="C16" s="30">
+        <v>5</v>
+      </c>
+      <c r="D16" s="30">
         <v>27</v>
       </c>
-      <c r="C8" s="42">
-        <v>1</v>
-      </c>
-      <c r="D8" s="42">
-        <v>3</v>
-      </c>
-      <c r="E8" s="42">
-        <v>1</v>
-      </c>
-      <c r="F8" s="42">
-        <v>3</v>
-      </c>
-      <c r="G8" s="43">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="41" t="s">
+      <c r="E16" s="30">
+        <v>5</v>
+      </c>
+      <c r="F16" s="30">
+        <v>27</v>
+      </c>
+      <c r="G16" s="31">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="30">
+        <v>2</v>
+      </c>
+      <c r="D17" s="30">
+        <v>30</v>
+      </c>
+      <c r="E17" s="30">
+        <v>2</v>
+      </c>
+      <c r="F17" s="30">
+        <v>30</v>
+      </c>
+      <c r="G17" s="31">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="30">
+        <v>2</v>
+      </c>
+      <c r="D18" s="30">
+        <v>30</v>
+      </c>
+      <c r="E18" s="30">
+        <v>2</v>
+      </c>
+      <c r="F18" s="30">
+        <v>30</v>
+      </c>
+      <c r="G18" s="31">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="42">
-        <v>1</v>
-      </c>
-      <c r="D9" s="42">
-        <v>3</v>
-      </c>
-      <c r="E9" s="42">
-        <v>1</v>
-      </c>
-      <c r="F9" s="42">
-        <v>3</v>
-      </c>
-      <c r="G9" s="43">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="42">
+      <c r="C19" s="33">
+        <v>24</v>
+      </c>
+      <c r="D19" s="33">
+        <v>8</v>
+      </c>
+      <c r="E19" s="33">
+        <v>24</v>
+      </c>
+      <c r="F19" s="33">
+        <v>8</v>
+      </c>
+      <c r="G19" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="7">
+        <v>27</v>
+      </c>
+      <c r="D20" s="7">
         <v>5</v>
       </c>
-      <c r="D10" s="42">
-        <v>19</v>
-      </c>
-      <c r="E10" s="42">
+      <c r="E20" s="7">
+        <v>27</v>
+      </c>
+      <c r="F20" s="7">
         <v>5</v>
       </c>
-      <c r="F10" s="42">
-        <v>19</v>
-      </c>
-      <c r="G10" s="43">
+      <c r="G20" s="8">
         <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="42">
-        <v>1</v>
-      </c>
-      <c r="D11" s="42">
-        <v>23</v>
-      </c>
-      <c r="E11" s="42">
-        <v>1</v>
-      </c>
-      <c r="F11" s="42">
-        <v>23</v>
-      </c>
-      <c r="G11" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="42">
-        <v>19</v>
-      </c>
-      <c r="D12" s="42">
-        <v>4</v>
-      </c>
-      <c r="E12" s="42">
-        <v>19</v>
-      </c>
-      <c r="F12" s="42">
-        <v>4</v>
-      </c>
-      <c r="G12" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="42">
-        <v>1</v>
-      </c>
-      <c r="D13" s="42">
-        <v>23</v>
-      </c>
-      <c r="E13" s="42">
-        <v>1</v>
-      </c>
-      <c r="F13" s="42">
-        <v>23</v>
-      </c>
-      <c r="G13" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="42">
-        <v>5</v>
-      </c>
-      <c r="D14" s="42">
-        <v>19</v>
-      </c>
-      <c r="E14" s="42">
-        <v>5</v>
-      </c>
-      <c r="F14" s="42">
-        <v>19</v>
-      </c>
-      <c r="G14" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="42">
-        <v>1</v>
-      </c>
-      <c r="D15" s="42">
-        <v>5</v>
-      </c>
-      <c r="E15" s="42">
-        <v>1</v>
-      </c>
-      <c r="F15" s="42">
-        <v>5</v>
-      </c>
-      <c r="G15" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="39">
-        <v>3</v>
-      </c>
-      <c r="D16" s="39">
-        <v>7</v>
-      </c>
-      <c r="E16" s="39">
-        <v>3</v>
-      </c>
-      <c r="F16" s="39">
-        <v>7</v>
-      </c>
-      <c r="G16" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="42">
-        <v>2</v>
-      </c>
-      <c r="D17" s="42">
-        <v>28</v>
-      </c>
-      <c r="E17" s="42">
-        <v>2</v>
-      </c>
-      <c r="F17" s="42">
-        <v>28</v>
-      </c>
-      <c r="G17" s="43">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="42">
-        <v>5</v>
-      </c>
-      <c r="D18" s="42">
-        <v>25</v>
-      </c>
-      <c r="E18" s="42">
-        <v>5</v>
-      </c>
-      <c r="F18" s="42">
-        <v>25</v>
-      </c>
-      <c r="G18" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="42">
-        <v>2</v>
-      </c>
-      <c r="D19" s="42">
-        <v>28</v>
-      </c>
-      <c r="E19" s="42">
-        <v>2</v>
-      </c>
-      <c r="F19" s="42">
-        <v>28</v>
-      </c>
-      <c r="G19" s="43">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="42">
-        <v>2</v>
-      </c>
-      <c r="D20" s="42">
-        <v>28</v>
-      </c>
-      <c r="E20" s="42">
-        <v>2</v>
-      </c>
-      <c r="F20" s="42">
-        <v>28</v>
-      </c>
-      <c r="G20" s="43">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="45">
-        <v>9</v>
-      </c>
-      <c r="D21" s="45">
-        <v>21</v>
-      </c>
-      <c r="E21" s="45">
-        <v>9</v>
-      </c>
-      <c r="F21" s="45">
-        <v>21</v>
-      </c>
-      <c r="G21" s="46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="7">
-        <v>12</v>
-      </c>
-      <c r="D22" s="7">
-        <v>6</v>
-      </c>
-      <c r="E22" s="7">
-        <v>12</v>
-      </c>
-      <c r="F22" s="7">
-        <v>7</v>
-      </c>
-      <c r="G22" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="7">
-        <v>12</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1</v>
-      </c>
-      <c r="E23" s="7">
-        <v>12</v>
-      </c>
-      <c r="F23" s="7">
-        <v>5</v>
-      </c>
-      <c r="G23" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="7">
-        <v>14</v>
-      </c>
-      <c r="D24" s="7">
-        <v>5</v>
-      </c>
-      <c r="E24" s="7">
-        <v>14</v>
-      </c>
-      <c r="F24" s="7">
-        <v>6</v>
-      </c>
-      <c r="G24" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="7">
-        <v>14</v>
-      </c>
-      <c r="D25" s="7">
-        <v>8</v>
-      </c>
-      <c r="E25" s="7">
-        <v>14</v>
-      </c>
-      <c r="F25" s="7">
-        <v>2</v>
-      </c>
-      <c r="G25" s="8">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="7">
-        <v>14</v>
-      </c>
-      <c r="D26" s="7">
-        <v>7</v>
-      </c>
-      <c r="E26" s="7">
-        <v>14</v>
-      </c>
-      <c r="F26" s="7">
-        <v>3</v>
-      </c>
-      <c r="G26" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="7">
-        <v>15</v>
-      </c>
-      <c r="D27" s="7">
-        <v>4</v>
-      </c>
-      <c r="E27" s="7">
-        <v>15</v>
-      </c>
-      <c r="F27" s="7">
-        <v>8</v>
-      </c>
-      <c r="G27" s="8">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="7">
-        <v>15</v>
-      </c>
-      <c r="D28" s="7">
-        <v>5</v>
-      </c>
-      <c r="E28" s="7">
-        <v>15</v>
-      </c>
-      <c r="F28" s="7">
-        <v>3</v>
-      </c>
-      <c r="G28" s="8">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>15</v>
-      </c>
-      <c r="D29" s="7">
-        <v>8</v>
-      </c>
-      <c r="E29" s="7">
-        <v>15</v>
-      </c>
-      <c r="F29" s="7">
-        <v>5</v>
-      </c>
-      <c r="G29" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="7">
-        <v>16</v>
-      </c>
-      <c r="D30" s="7">
-        <v>28</v>
-      </c>
-      <c r="E30" s="7">
-        <v>16</v>
-      </c>
-      <c r="F30" s="7">
-        <v>30</v>
-      </c>
-      <c r="G30" s="8">
-        <v>0.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="Q2:U2"/>
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="AA2:AF2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
   </mergeCells>
-  <conditionalFormatting sqref="H5:BO30">
-    <cfRule type="expression" dxfId="9" priority="1">
-      <formula>ProcentdelFuldført</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="3">
-      <formula>ProcentdelFuldførtUdOver</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="4">
-      <formula>Faktisk</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="5">
-      <formula>FaktiskUdOver</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="7">
-      <formula>H$4=valgt_tidsrum</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="11">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="12">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B31:BO31">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="B21:BO21">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:BO4">
-    <cfRule type="expression" dxfId="0" priority="8">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>H$4=valgt_tidsrum</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:BO20">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>ProcentdelFuldført</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="3">
+      <formula>ProcentdelFuldførtUdOver</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>Faktisk</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>FaktiskUdOver</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="7">
+      <formula>H$4=valgt_tidsrum</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="11">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="12">
+      <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="16">
